--- a/Documentation/Scrum Document.xlsx
+++ b/Documentation/Scrum Document.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\Cygwin\home\Adam\CST2550-CW2-Dentist-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75FA789-6A43-4EA7-A44E-B2679647BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B61DAA8-AB8C-4ACC-812B-96F4D61B085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,66 @@
   </si>
   <si>
     <t>Make functions for input validation.</t>
+  </si>
+  <si>
+    <t>Make the interface class.</t>
+  </si>
+  <si>
+    <t>Make the Room class.</t>
+  </si>
+  <si>
+    <t>Handle the data.</t>
+  </si>
+  <si>
+    <t>Make the .csv files.</t>
+  </si>
+  <si>
+    <t>Make the CSV_Reader class.</t>
+  </si>
+  <si>
+    <t>Make the Data class, for storing vectors that contain pointers to instances of the other classes.</t>
+  </si>
+  <si>
+    <t>Add the ability to write to the .csv files.</t>
+  </si>
+  <si>
+    <t>Address the use cases.</t>
+  </si>
+  <si>
+    <t>Add the ability to view the data.</t>
+  </si>
+  <si>
+    <t>Add the ability to view the time and date.</t>
+  </si>
+  <si>
+    <t>Add the ability to book appointments.</t>
+  </si>
+  <si>
+    <t>Add the ability to book follow-up appointments.</t>
+  </si>
+  <si>
+    <t>Test the programme.</t>
+  </si>
+  <si>
+    <t>Create test cases for the classes.</t>
+  </si>
+  <si>
+    <t>Create test cases for the non-class-based functions.</t>
+  </si>
+  <si>
+    <t>Create the Makefile.</t>
+  </si>
+  <si>
+    <t>Configure the Makefile to compile the Dentist Programme.</t>
+  </si>
+  <si>
+    <t>Configure the Makefile to compile the quicksort testing programme.</t>
+  </si>
+  <si>
+    <t>Configure the Makefile to compile the Catch2 testing programme.</t>
+  </si>
+  <si>
+    <t>Include the class files (as .o files) in the Makefile.</t>
   </si>
 </sst>
 </file>
@@ -411,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +582,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,31 +669,31 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,19 +701,383 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum Document.xlsx
+++ b/Documentation/Scrum Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmes\Cygwin\home\Adam\CST2550-CW2-Dentist-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B61DAA8-AB8C-4ACC-812B-96F4D61B085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF6DA1-8048-411A-B1DB-0B96140DA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Include the class files (as .o files) in the Makefile.</t>
+  </si>
+  <si>
+    <t>Make a programme for dentists.</t>
+  </si>
+  <si>
+    <t>The programme must be able to store information regarding dentists, patients and appointments.</t>
   </si>
 </sst>
 </file>
@@ -519,8 +525,14 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,13 +850,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -855,7 +867,7 @@
         <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -909,13 +921,13 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -929,13 +941,13 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -946,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -960,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -980,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -997,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1051,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
